--- a/BD2.xlsx
+++ b/BD2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55814C4-D37C-4291-A6D8-C0A03FBDA2A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="331">
   <si>
     <t>Вік</t>
   </si>
@@ -1265,7 +1264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1768,46 +1767,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,45 +1780,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1803,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1894,11 +1821,83 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1914,7 +1913,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1930,9 +1929,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1970,7 +1969,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2005,23 +2004,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2057,26 +2039,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2249,11 +2214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2308,293 +2273,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="53" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="44" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="44" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="64" t="s">
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="66" t="s">
+      <c r="W1" s="73"/>
+      <c r="X1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="72" t="s">
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="53" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="56" t="s">
+      <c r="AH1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="59" t="s">
+      <c r="AI1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="61" t="s">
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="69" t="s">
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="39" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="46" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="65" t="s">
+      <c r="T2" s="70"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="80" t="s">
+      <c r="AB2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
       <c r="AE2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="AF2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="75" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="50" t="s">
         <v>32</v>
       </c>
       <c r="AJ2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="51" t="s">
+      <c r="AK2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" s="49" t="s">
+      <c r="AM2" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="AN2" s="49" t="s">
+      <c r="AN2" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="AO2" s="49" t="s">
+      <c r="AO2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AP2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="49" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AR2" s="49" t="s">
+      <c r="AR2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="49" t="s">
+      <c r="AS2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="49" t="s">
+      <c r="AT2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="49" t="s">
+      <c r="AU2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AW2" s="49" t="s">
+      <c r="AW2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="49" t="s">
+      <c r="AX2" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="49" t="s">
+      <c r="AY2" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AZ2" s="49" t="s">
+      <c r="AZ2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="BA2" s="49" t="s">
+      <c r="BA2" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="BB2" s="49" t="s">
+      <c r="BB2" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="BC2" s="49" t="s">
+      <c r="BC2" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BD2" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="BE2" s="82" t="s">
+      <c r="BE2" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="BF2" s="82" t="s">
+      <c r="BF2" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="BG2" s="70"/>
+      <c r="BG2" s="45"/>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="18" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="47"/>
+      <c r="R3" s="69"/>
       <c r="S3" s="18" t="s">
         <v>29</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="55"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="79"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="55"/>
       <c r="AB3" s="22" t="s">
         <v>255</v>
       </c>
@@ -2608,33 +2573,33 @@
         <v>258</v>
       </c>
       <c r="AF3" s="26"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="52"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="51"/>
       <c r="AJ3" s="19"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="71"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="46"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -3226,9 +3191,6 @@
       <c r="X12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC12" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="AD12" s="8" t="s">
         <v>24</v>
       </c>
@@ -12093,19 +12055,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="BG1:BG3"/>
     <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="AX2:AX3"/>
@@ -12122,37 +12102,19 @@
     <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12160,7 +12122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12678,7 +12640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -13137,7 +13099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -13609,7 +13571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14121,14 +14083,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:D36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
